--- a/data/trans_dic/P19C01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2011242084321843</v>
+        <v>0.2027326686493593</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1457269632207892</v>
+        <v>0.1481840845150495</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2338655556755468</v>
+        <v>0.231915936924086</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3253993935660645</v>
+        <v>0.3228840299854026</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2001261779008278</v>
+        <v>0.1980290857609754</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2091014677013462</v>
+        <v>0.2073992505354419</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3017550482992348</v>
+        <v>0.3025807822748852</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3941541883761018</v>
+        <v>0.3920222706590757</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2088591709716432</v>
+        <v>0.2090445276140927</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1885447242803892</v>
+        <v>0.1889631650758211</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2849953925585436</v>
+        <v>0.2849389904791542</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.373663136650948</v>
+        <v>0.3770276249003595</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2702115540404572</v>
+        <v>0.2681266322135191</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2052592351120839</v>
+        <v>0.2031678502608244</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3162775902565118</v>
+        <v>0.3138329267321494</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4048051832788051</v>
+        <v>0.4105244284816992</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2538729594834111</v>
+        <v>0.2508886172099433</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2594378640500536</v>
+        <v>0.2569778896908658</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3786276921846388</v>
+        <v>0.3773711255962739</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4514814424494095</v>
+        <v>0.4469153263807739</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2496533101472146</v>
+        <v>0.2507248292503441</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2259310142692609</v>
+        <v>0.2259860409568524</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3414082967436413</v>
+        <v>0.3408823802130016</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4199297190301959</v>
+        <v>0.4238474447827779</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.4300912571577149</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.6055497417651966</v>
+        <v>0.6055497417651967</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2703558999139138</v>
+        <v>0.2677870912849619</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2901715009773091</v>
+        <v>0.2916005364674287</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3905169806823215</v>
+        <v>0.3914246798442943</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5581411689646757</v>
+        <v>0.5611698258819218</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3272392481582988</v>
+        <v>0.3258300479020091</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3414906145599099</v>
+        <v>0.3425856001078759</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4195682605726824</v>
+        <v>0.4207178920310345</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6076102087354823</v>
+        <v>0.6093391961584539</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3087327903572009</v>
+        <v>0.3052294784607781</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3221965210143384</v>
+        <v>0.3227221756710668</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.413199765199516</v>
+        <v>0.4114356324743323</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5895768257883985</v>
+        <v>0.5904407493887528</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3229022328467309</v>
+        <v>0.3201561886228699</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3359583687850543</v>
+        <v>0.3399607053338724</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.439443198573341</v>
+        <v>0.4393522095612403</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6088452375655868</v>
+        <v>0.6087008275127022</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3809825050184135</v>
+        <v>0.3765790935395625</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3901640433160022</v>
+        <v>0.3910186396375109</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4693451721198401</v>
+        <v>0.4709026292742681</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6472638364370326</v>
+        <v>0.647072259691417</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3442489226024296</v>
+        <v>0.3422076491751995</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3568838327657502</v>
+        <v>0.3576577437331816</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4476846250583059</v>
+        <v>0.4484590563481235</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6217319744050243</v>
+        <v>0.6208032484410307</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.5056090749873308</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6869709430854903</v>
+        <v>0.6869709430854904</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3915249237248163</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3553660654963335</v>
+        <v>0.3535608972468023</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3767791280290056</v>
+        <v>0.3779789328830306</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4585095101082382</v>
+        <v>0.4572853631274654</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6456044920986173</v>
+        <v>0.646549346045177</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3445761636366668</v>
+        <v>0.3439079344142577</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4956392240657031</v>
+        <v>0.4947487022631737</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4776801003273957</v>
+        <v>0.4762031829595816</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6390345780777166</v>
+        <v>0.6386276070206447</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3649900173814314</v>
+        <v>0.3631809684764515</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4518574708891778</v>
+        <v>0.4499490064961704</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4818315158652829</v>
+        <v>0.4803519243446518</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6536452277721138</v>
+        <v>0.6546806057764605</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4519493810687321</v>
+        <v>0.4523289262509022</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.481388413919858</v>
+        <v>0.4801019982425385</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5523061760506116</v>
+        <v>0.5529827222189344</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7242308710344094</v>
+        <v>0.7221419896281549</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4424038303141931</v>
+        <v>0.441962475761584</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5955127543973341</v>
+        <v>0.6004988981479189</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5673140226878512</v>
+        <v>0.5656107819736115</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7021996868932882</v>
+        <v>0.701347116727693</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4334041105384996</v>
+        <v>0.4324660289925856</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.525454875122462</v>
+        <v>0.5224016418504303</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5451544927650134</v>
+        <v>0.5442972936299083</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.702687016287458</v>
+        <v>0.701410067173176</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.4344035112070722</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.5914748156723392</v>
+        <v>0.5914748156723391</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.3064507485432453</v>
@@ -1105,7 +1105,7 @@
         <v>0.4216379063182535</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.5814734000160788</v>
+        <v>0.5814734000160789</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2791603656560006</v>
+        <v>0.2797294812321364</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2782375761897228</v>
+        <v>0.2771728340245743</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3900062090975119</v>
+        <v>0.3888032221337985</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5511946545195654</v>
+        <v>0.5512969052078879</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2966215097468581</v>
+        <v>0.2950697197079569</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3251462748741561</v>
+        <v>0.3248923084254807</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4166449245994078</v>
+        <v>0.4162212821767537</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5760152883849348</v>
+        <v>0.5759639988780191</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2935505156213891</v>
+        <v>0.2941442396808467</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3078815161978459</v>
+        <v>0.3072667262293414</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4084352363176921</v>
+        <v>0.4080766612898193</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5691255919584636</v>
+        <v>0.5693422737643802</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3181734517913822</v>
+        <v>0.3167788364700802</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3130107372001833</v>
+        <v>0.3113052309523807</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4268735285833805</v>
+        <v>0.4279054263288551</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5893631418963808</v>
+        <v>0.5896516888038639</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3328566081873888</v>
+        <v>0.330649202192282</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3607084080956821</v>
+        <v>0.3609391326432499</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4540157530661162</v>
+        <v>0.4531771197220476</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6055844337405361</v>
+        <v>0.6061261631509005</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3200516812709652</v>
+        <v>0.3189980000893584</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3314330146381862</v>
+        <v>0.3310489894847025</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4355168542766985</v>
+        <v>0.4350051187494466</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.593116489952296</v>
+        <v>0.5937763855526994</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>138648</v>
+        <v>139757</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>113547</v>
+        <v>115461</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>106975</v>
+        <v>106083</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>174830</v>
+        <v>173479</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>191913</v>
+        <v>189902</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>235911</v>
+        <v>233991</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>192783</v>
+        <v>193311</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>309250</v>
+        <v>307578</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>344268</v>
+        <v>344573</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>359628</v>
+        <v>360426</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>312438</v>
+        <v>312377</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>493934</v>
+        <v>498382</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>186274</v>
+        <v>184837</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>159933</v>
+        <v>158303</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>144671</v>
+        <v>143553</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>217493</v>
+        <v>220566</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>243454</v>
+        <v>240592</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>292701</v>
+        <v>289926</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>241895</v>
+        <v>241093</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>354229</v>
+        <v>350646</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>411510</v>
+        <v>413276</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>430938</v>
+        <v>431043</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>374284</v>
+        <v>373707</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>555093</v>
+        <v>560272</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>355369</v>
+        <v>351992</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>489890</v>
+        <v>492303</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>662553</v>
+        <v>664093</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1198038</v>
+        <v>1204539</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>449059</v>
+        <v>447125</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>542724</v>
+        <v>544464</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>716924</v>
+        <v>718889</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1282417</v>
+        <v>1286066</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>829476</v>
+        <v>820064</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1056018</v>
+        <v>1057741</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1407079</v>
+        <v>1401072</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2509870</v>
+        <v>2513548</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>424438</v>
+        <v>420829</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>567191</v>
+        <v>573948</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>745562</v>
+        <v>745407</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1306873</v>
+        <v>1306563</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>522809</v>
+        <v>516766</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>620080</v>
+        <v>621438</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>801979</v>
+        <v>804640</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1366110</v>
+        <v>1365706</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>924898</v>
+        <v>919413</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1169707</v>
+        <v>1172244</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1524511</v>
+        <v>1527148</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>2646757</v>
+        <v>2642803</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>160779</v>
+        <v>159962</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>166587</v>
+        <v>167117</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>228908</v>
+        <v>228297</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>453726</v>
+        <v>454390</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>140857</v>
+        <v>140584</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>210014</v>
+        <v>209636</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>242814</v>
+        <v>242064</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>462925</v>
+        <v>462630</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>314335</v>
+        <v>312777</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>391244</v>
+        <v>389591</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>485476</v>
+        <v>483985</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>932886</v>
+        <v>934364</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>204476</v>
+        <v>204648</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>212838</v>
+        <v>212269</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>275736</v>
+        <v>276073</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>508984</v>
+        <v>507516</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>180847</v>
+        <v>180667</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>252332</v>
+        <v>254445</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>288377</v>
+        <v>287511</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>508683</v>
+        <v>508065</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>373254</v>
+        <v>372446</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>454969</v>
+        <v>452325</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>549278</v>
+        <v>548414</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1002879</v>
+        <v>1001057</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>685686</v>
+        <v>687084</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>809556</v>
+        <v>806458</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1034791</v>
+        <v>1031600</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1866648</v>
+        <v>1866995</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>812745</v>
+        <v>808493</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1021355</v>
+        <v>1020557</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1189902</v>
+        <v>1188692</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2084943</v>
+        <v>2084758</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1525362</v>
+        <v>1528448</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1862930</v>
+        <v>1859210</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2250144</v>
+        <v>2248169</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>3987378</v>
+        <v>3988896</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>781512</v>
+        <v>778086</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>910732</v>
+        <v>905769</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1132610</v>
+        <v>1135348</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1995908</v>
+        <v>1996885</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>912029</v>
+        <v>905981</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1133063</v>
+        <v>1133788</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1296629</v>
+        <v>1294234</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2191972</v>
+        <v>2193932</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1663069</v>
+        <v>1657594</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>2005435</v>
+        <v>2003112</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>2399342</v>
+        <v>2396522</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>4155461</v>
+        <v>4160085</v>
       </c>
     </row>
     <row r="20">
